--- a/NLTK/Neu/Kategorisierungen_N/kategorie_vergleich.xlsx
+++ b/NLTK/Neu/Kategorisierungen_N/kategorie_vergleich.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:CX14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,506 @@
           <t>TextType</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>aussprache</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>interaktion</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>frage</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>komponente</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>aufsatz</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>syntax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ermittlung</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>faktor</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>phänomen</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>arbeit</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>vorfeld</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ziel</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>beitrag</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>beantwortung</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>bereich</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>rolle</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>diskurs</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>einblick</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>konzept</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>augenmerk</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>begründung</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ergebnis</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>fachwissen</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>studie</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>kapitel</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>abschnitt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>herangehensweise</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>deutsch</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>merkmal</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>basis</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ansicht</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>erwerb</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>debatte</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>beispiel</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>datum</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>bezeichnung</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>muster</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>gegenstand</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>effizienz</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>mittelfeld</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>limitation</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>anpassung</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>alter</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>anbindung</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>befund</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>altersunterschied</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>lernend</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>einfluss</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>abweichen</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>artikel</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>objekt</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>thematik</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>vergleich</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>relevanz</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>thema</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>korpus</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>auswahl</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>vielzahl</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>koordination</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>lösung</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>ausbreitung</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>besonderen</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>beherrschung</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>abschluss</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>ausblick</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>anordnung</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>sprecherin</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>variant</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>bild</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>einleitung</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>strategie</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>reis</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>bedürfnis</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>althochdeutsch</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>mechanismus</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>markierung</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>hypothese</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>feld</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>verwirrung</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>periode</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>pubertät</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>ausgangspunkt</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>dialekt</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +982,306 @@
           <t>TextA</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24</v>
+      </c>
+      <c r="O2" t="n">
+        <v>21</v>
+      </c>
+      <c r="P2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12</v>
+      </c>
+      <c r="V2" t="n">
+        <v>14</v>
+      </c>
+      <c r="W2" t="n">
+        <v>18</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,6 +1294,306 @@
           <t>TextB</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>37</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>30</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30</v>
+      </c>
+      <c r="O3" t="n">
+        <v>16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>30</v>
+      </c>
+      <c r="R3" t="n">
+        <v>25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>13</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="n">
+        <v>10</v>
+      </c>
+      <c r="W3" t="n">
+        <v>34</v>
+      </c>
+      <c r="X3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>8</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>5</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,6 +1606,306 @@
           <t>TextA</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15</v>
+      </c>
+      <c r="V4" t="n">
+        <v>16</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +1918,306 @@
           <t>TextB</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>26</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>39</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>16</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24</v>
+      </c>
+      <c r="N5" t="n">
+        <v>22</v>
+      </c>
+      <c r="O5" t="n">
+        <v>16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23</v>
+      </c>
+      <c r="R5" t="n">
+        <v>19</v>
+      </c>
+      <c r="S5" t="n">
+        <v>18</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14</v>
+      </c>
+      <c r="V5" t="n">
+        <v>15</v>
+      </c>
+      <c r="W5" t="n">
+        <v>22</v>
+      </c>
+      <c r="X5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>62</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -530,6 +2230,306 @@
           <t>TextA</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>27</v>
+      </c>
+      <c r="P6" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11</v>
+      </c>
+      <c r="R6" t="n">
+        <v>17</v>
+      </c>
+      <c r="S6" t="n">
+        <v>23</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12</v>
+      </c>
+      <c r="U6" t="n">
+        <v>26</v>
+      </c>
+      <c r="V6" t="n">
+        <v>20</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -542,6 +2542,306 @@
           <t>TextB</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>44</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
+      <c r="H7" t="n">
+        <v>31</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>32</v>
+      </c>
+      <c r="P7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>21</v>
+      </c>
+      <c r="T7" t="n">
+        <v>18</v>
+      </c>
+      <c r="U7" t="n">
+        <v>19</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>19</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +2854,306 @@
           <t>TextA</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O8" t="n">
+        <v>25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>30</v>
+      </c>
+      <c r="S8" t="n">
+        <v>19</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>19</v>
+      </c>
+      <c r="V8" t="n">
+        <v>18</v>
+      </c>
+      <c r="W8" t="n">
+        <v>15</v>
+      </c>
+      <c r="X8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -566,6 +3166,306 @@
           <t>TextB</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L9" t="n">
+        <v>31</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>20</v>
+      </c>
+      <c r="S9" t="n">
+        <v>19</v>
+      </c>
+      <c r="T9" t="n">
+        <v>12</v>
+      </c>
+      <c r="U9" t="n">
+        <v>12</v>
+      </c>
+      <c r="V9" t="n">
+        <v>14</v>
+      </c>
+      <c r="W9" t="n">
+        <v>16</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -578,6 +3478,306 @@
           <t>TextA</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>22</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" t="n">
+        <v>23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>26</v>
+      </c>
+      <c r="O10" t="n">
+        <v>22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>23</v>
+      </c>
+      <c r="R10" t="n">
+        <v>27</v>
+      </c>
+      <c r="S10" t="n">
+        <v>29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>30</v>
+      </c>
+      <c r="U10" t="n">
+        <v>12</v>
+      </c>
+      <c r="V10" t="n">
+        <v>18</v>
+      </c>
+      <c r="W10" t="n">
+        <v>23</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -590,6 +3790,306 @@
           <t>TextB</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" t="n">
+        <v>52</v>
+      </c>
+      <c r="E11" t="n">
+        <v>36</v>
+      </c>
+      <c r="F11" t="n">
+        <v>53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>17</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>34</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21</v>
+      </c>
+      <c r="M11" t="n">
+        <v>24</v>
+      </c>
+      <c r="N11" t="n">
+        <v>38</v>
+      </c>
+      <c r="O11" t="n">
+        <v>13</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>37</v>
+      </c>
+      <c r="R11" t="n">
+        <v>22</v>
+      </c>
+      <c r="S11" t="n">
+        <v>21</v>
+      </c>
+      <c r="T11" t="n">
+        <v>56</v>
+      </c>
+      <c r="U11" t="n">
+        <v>16</v>
+      </c>
+      <c r="V11" t="n">
+        <v>21</v>
+      </c>
+      <c r="W11" t="n">
+        <v>23</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>11</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>7</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -602,6 +4102,306 @@
           <t>TextA</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>48</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>34</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31</v>
+      </c>
+      <c r="L12" t="n">
+        <v>21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21</v>
+      </c>
+      <c r="O12" t="n">
+        <v>21</v>
+      </c>
+      <c r="P12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>34</v>
+      </c>
+      <c r="T12" t="n">
+        <v>20</v>
+      </c>
+      <c r="U12" t="n">
+        <v>17</v>
+      </c>
+      <c r="V12" t="n">
+        <v>28</v>
+      </c>
+      <c r="W12" t="n">
+        <v>20</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>6</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>6</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>5</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>5</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -614,6 +4414,306 @@
           <t>TextB</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>59</v>
+      </c>
+      <c r="D13" t="n">
+        <v>38</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58</v>
+      </c>
+      <c r="F13" t="n">
+        <v>51</v>
+      </c>
+      <c r="G13" t="n">
+        <v>41</v>
+      </c>
+      <c r="H13" t="n">
+        <v>34</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>39</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
+      <c r="L13" t="n">
+        <v>17</v>
+      </c>
+      <c r="M13" t="n">
+        <v>24</v>
+      </c>
+      <c r="N13" t="n">
+        <v>31</v>
+      </c>
+      <c r="O13" t="n">
+        <v>29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>23</v>
+      </c>
+      <c r="S13" t="n">
+        <v>21</v>
+      </c>
+      <c r="T13" t="n">
+        <v>40</v>
+      </c>
+      <c r="U13" t="n">
+        <v>21</v>
+      </c>
+      <c r="V13" t="n">
+        <v>25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>21</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>8</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>5</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -625,6 +4725,306 @@
         <is>
           <t>Original</t>
         </is>
+      </c>
+      <c r="C14" t="n">
+        <v>47</v>
+      </c>
+      <c r="D14" t="n">
+        <v>62</v>
+      </c>
+      <c r="E14" t="n">
+        <v>54</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>33</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19</v>
+      </c>
+      <c r="I14" t="n">
+        <v>46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>43</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24</v>
+      </c>
+      <c r="M14" t="n">
+        <v>31</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>21</v>
+      </c>
+      <c r="R14" t="n">
+        <v>14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7</v>
+      </c>
+      <c r="T14" t="n">
+        <v>17</v>
+      </c>
+      <c r="U14" t="n">
+        <v>46</v>
+      </c>
+      <c r="V14" t="n">
+        <v>31</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>5</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>12</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +5038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +5068,2606 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>aussprache</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>komponente</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>aufsatz</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>faktor</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ziel</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>beitrag</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>frage</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ChatGPT4o</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>komponente</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>frage</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>syntax</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>einblick</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>abschnitt</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>beitrag</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ergebnis</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ChatGPTo1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>frage</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>interaktion</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>syntax</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>aussprache</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>aufsatz</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>interaktion</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>aufsatz</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Deepseek-R1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>faktor</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>aussprache</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>aufsatz</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>syntax</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>interaktion</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>aufsatz</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>interaktion</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>syntax</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Deepseek-V3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ermittlung</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>aussprache</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>arbeit</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>phänomen</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>faktor</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>komponente</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>arbeit</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>komponente</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ermittlung</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>kapitel</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Gemini2.0Flash</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>aussprache</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>phänomen</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>beantwortung</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TextA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>kapitel</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>arbeit</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>terminologie</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Geminiflash2.0thinking</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TextB</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>dynamik</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ansatz</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>deutsche</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>aussprache</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vorfeld</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>abhängigkeit</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>aufarbeitung</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>frage</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>HumanText</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>begründung</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
